--- a/profile_data/video_app/ED_mc_vid.xlsx
+++ b/profile_data/video_app/ED_mc_vid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonny/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB84A6-1C54-2449-B94B-7E57818A4228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49340D0-266A-AF44-8E07-27618448664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="500" windowWidth="20540" windowHeight="12540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edm" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,28 @@
     <sheet name="ED2_latency" sheetId="5" r:id="rId5"/>
     <sheet name="ED3_latency" sheetId="6" r:id="rId6"/>
     <sheet name="ED4_latency" sheetId="7" r:id="rId7"/>
+    <sheet name="ED5_latency" sheetId="8" r:id="rId8"/>
+    <sheet name="ED6_latency" sheetId="9" r:id="rId9"/>
+    <sheet name="ED7_latency" sheetId="10" r:id="rId10"/>
+    <sheet name="ED8_latency" sheetId="11" r:id="rId11"/>
+    <sheet name="ED9_latency" sheetId="12" r:id="rId12"/>
+    <sheet name="ED10_latency" sheetId="13" r:id="rId13"/>
+    <sheet name="ED11_latency" sheetId="14" r:id="rId14"/>
+    <sheet name="ED12_latency" sheetId="15" r:id="rId15"/>
+    <sheet name="ED13_latency" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -83,24 +102,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,11 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -504,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL6"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,18 +1681,3129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AT7">
+        <v>2</v>
+      </c>
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>2</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>2</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>2</v>
+      </c>
+      <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>2</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>2</v>
+      </c>
+      <c r="AT11">
+        <v>2</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>2</v>
+      </c>
+      <c r="AT12">
+        <v>2</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>2</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>2</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>2</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>2</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>2</v>
+      </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>2</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3A9C52-0DC8-4D4A-A2B7-2E1E67A71EC6}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C5EDBF-2AC6-2E47-856C-91507CB0D01F}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7100D93-001C-3849-AF51-F337FBB72364}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118FDEB8-52AE-9F44-AB59-069ED5AD9E78}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EBD2A4-5631-334F-9A5B-E1C553ED0FE7}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7299B829-B7BC-8041-B2A5-2C067EC24C19}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F35484-69B0-4D4A-9043-85F6F1EFD9F4}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL7"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2857,70 +5973,1750 @@
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>4</v>
+      </c>
+      <c r="AU7">
+        <v>4</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>2</v>
+      </c>
+      <c r="BJ7">
+        <v>2</v>
+      </c>
+      <c r="BK7">
+        <v>2</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>5</v>
+      </c>
+      <c r="AT8">
+        <v>6</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>6</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>2</v>
+      </c>
+      <c r="BJ8">
+        <v>2</v>
+      </c>
+      <c r="BK8">
+        <v>2</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>5</v>
+      </c>
+      <c r="AL9">
+        <v>5</v>
+      </c>
+      <c r="AM9">
+        <v>5</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>5</v>
+      </c>
+      <c r="AT9">
+        <v>5</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>4</v>
+      </c>
+      <c r="BB9">
+        <v>4</v>
+      </c>
+      <c r="BC9">
+        <v>3</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>2</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>6</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>6</v>
+      </c>
+      <c r="AT10">
+        <v>6</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>5</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>2</v>
+      </c>
+      <c r="BK10">
+        <v>2</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>5</v>
+      </c>
+      <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>4</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>5</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>2</v>
+      </c>
+      <c r="BJ11">
+        <v>2</v>
+      </c>
+      <c r="BK11">
+        <v>2</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12">
+        <v>2</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <v>2</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>2</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>2</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>2</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>2</v>
+      </c>
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>2</v>
+      </c>
+      <c r="BJ12">
+        <v>2</v>
+      </c>
+      <c r="BK12">
+        <v>2</v>
+      </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
+      <c r="AL13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>5</v>
+      </c>
+      <c r="AT13">
+        <v>5</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>5</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <v>2</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
+      </c>
+      <c r="BL13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>6</v>
+      </c>
+      <c r="AL14">
+        <v>5</v>
+      </c>
+      <c r="AM14">
+        <v>4</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>5</v>
+      </c>
+      <c r="AT14">
+        <v>6</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
+        <v>5</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>2</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AL15">
+        <v>8</v>
+      </c>
+      <c r="AM15">
+        <v>8</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>8</v>
+      </c>
+      <c r="AT15">
+        <v>8</v>
+      </c>
+      <c r="AU15">
+        <v>8</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>9</v>
+      </c>
+      <c r="BB15">
+        <v>8</v>
+      </c>
+      <c r="BC15">
+        <v>8</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>1</v>
+      </c>
+      <c r="BK15">
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2939,22 +7735,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3134,22 +7930,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3329,182 +8125,182 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>27</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>26</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>21</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3524,182 +8320,182 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>19</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>19</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3712,189 +8508,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFAFC4-FAB1-1446-B47E-A1D1BD475813}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>19</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
         <v>13</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DA0AD8-E088-6644-8A56-B7E3E78D39C7}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA1A47-87AE-8640-AC0E-44227E032D48}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
